--- a/nr-add-sf/ig/StructureDefinition-cdl-bundle-creation-note.xlsx
+++ b/nr-add-sf/ig/StructureDefinition-cdl-bundle-creation-note.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-22T12:26:15+00:00</t>
+    <t>2024-07-22T12:50:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-sf/ig/StructureDefinition-cdl-bundle-creation-note.xlsx
+++ b/nr-add-sf/ig/StructureDefinition-cdl-bundle-creation-note.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-22T12:50:44+00:00</t>
+    <t>2024-07-22T13:02:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-sf/ig/StructureDefinition-cdl-bundle-creation-note.xlsx
+++ b/nr-add-sf/ig/StructureDefinition-cdl-bundle-creation-note.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-22T13:02:51+00:00</t>
+    <t>2024-07-22T14:37:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-sf/ig/StructureDefinition-cdl-bundle-creation-note.xlsx
+++ b/nr-add-sf/ig/StructureDefinition-cdl-bundle-creation-note.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-22T14:37:38+00:00</t>
+    <t>2024-08-29T16:05:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-sf/ig/StructureDefinition-cdl-bundle-creation-note.xlsx
+++ b/nr-add-sf/ig/StructureDefinition-cdl-bundle-creation-note.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-29T16:05:10+00:00</t>
+    <t>2024-08-30T08:51:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-sf/ig/StructureDefinition-cdl-bundle-creation-note.xlsx
+++ b/nr-add-sf/ig/StructureDefinition-cdl-bundle-creation-note.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-30T08:51:03+00:00</t>
+    <t>2024-09-18T14:38:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -613,7 +613,7 @@
 * Results from operations might involve resources that are not identified.</t>
   </si>
   <si>
-    <t>fullUrl might not be [unique in the context of a resource](bundle.html#bundle-unique). Note that since [FHIR resources do not need to be served through the FHIR API](http://hl7.org/fhir/R4/references.html), the fullURL might be a URN or an absolute URL that does not end with the logical id of the resource (Resource.id). However, but if the fullUrl does look like a RESTful server URL (e.g. meets the [regex](http://hl7.org/fhir/R4/references.html#regex), then the 'id' portion of the fullUrl SHALL end with the Resource.id.
+    <t>fullUrl might not be [unique in the context of a resource](http://hl7.org/fhir/R4/bundle.html#bundle-unique). Note that since [FHIR resources do not need to be served through the FHIR API](http://hl7.org/fhir/R4/references.html), the fullURL might be a URN or an absolute URL that does not end with the logical id of the resource (Resource.id). However, but if the fullUrl does look like a RESTful server URL (e.g. meets the [regex](http://hl7.org/fhir/R4/references.html#regex), then the 'id' portion of the fullUrl SHALL end with the Resource.id.
 Note that the fullUrl is not the same as the canonical URL - it's an absolute url for an endpoint serving the resource (these will happen to have the same value on the canonical server for the resource with the canonical URL).</t>
   </si>
   <si>

--- a/nr-add-sf/ig/StructureDefinition-cdl-bundle-creation-note.xlsx
+++ b/nr-add-sf/ig/StructureDefinition-cdl-bundle-creation-note.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T14:38:31+00:00</t>
+    <t>2024-09-18T14:39:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-sf/ig/StructureDefinition-cdl-bundle-creation-note.xlsx
+++ b/nr-add-sf/ig/StructureDefinition-cdl-bundle-creation-note.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T14:39:12+00:00</t>
+    <t>2024-09-18T14:39:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-sf/ig/StructureDefinition-cdl-bundle-creation-note.xlsx
+++ b/nr-add-sf/ig/StructureDefinition-cdl-bundle-creation-note.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T14:39:51+00:00</t>
+    <t>2024-09-18T14:41:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-sf/ig/StructureDefinition-cdl-bundle-creation-note.xlsx
+++ b/nr-add-sf/ig/StructureDefinition-cdl-bundle-creation-note.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T14:41:10+00:00</t>
+    <t>2024-09-18T15:26:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-sf/ig/StructureDefinition-cdl-bundle-creation-note.xlsx
+++ b/nr-add-sf/ig/StructureDefinition-cdl-bundle-creation-note.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T15:26:16+00:00</t>
+    <t>2024-09-18T15:26:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-sf/ig/StructureDefinition-cdl-bundle-creation-note.xlsx
+++ b/nr-add-sf/ig/StructureDefinition-cdl-bundle-creation-note.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T15:26:41+00:00</t>
+    <t>2024-09-18T15:26:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-sf/ig/StructureDefinition-cdl-bundle-creation-note.xlsx
+++ b/nr-add-sf/ig/StructureDefinition-cdl-bundle-creation-note.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T15:26:56+00:00</t>
+    <t>2024-09-19T10:05:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-sf/ig/StructureDefinition-cdl-bundle-creation-note.xlsx
+++ b/nr-add-sf/ig/StructureDefinition-cdl-bundle-creation-note.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-19T10:05:54+00:00</t>
+    <t>2024-09-19T10:11:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-sf/ig/StructureDefinition-cdl-bundle-creation-note.xlsx
+++ b/nr-add-sf/ig/StructureDefinition-cdl-bundle-creation-note.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-19T10:11:41+00:00</t>
+    <t>2024-09-19T12:57:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-sf/ig/StructureDefinition-cdl-bundle-creation-note.xlsx
+++ b/nr-add-sf/ig/StructureDefinition-cdl-bundle-creation-note.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-19T12:57:53+00:00</t>
+    <t>2024-09-19T13:35:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
